--- a/use/keyboard-shortcuts-eclipse.xlsx
+++ b/use/keyboard-shortcuts-eclipse.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="help" sheetId="2" r:id="rId1"/>
     <sheet name="help-zh" sheetId="4" r:id="rId2"/>
     <sheet name="preference" sheetId="6" r:id="rId3"/>
     <sheet name="preference-zh" sheetId="5" r:id="rId4"/>
+    <sheet name="help-zh 打印" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4545" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="1711">
   <si>
     <t>File actions</t>
   </si>
@@ -5321,6 +5322,132 @@
   </si>
   <si>
     <t>Alt+Shift+?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eclipse</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List of key bindings</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示大纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转到上一个问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件中的出现位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找/替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆向增量查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开选择区域到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5328,7 +5455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5353,13 +5480,71 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5376,11 +5561,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5389,6 +5601,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE6E6E6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6521,7 +6738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -14408,7 +14625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+    <sheetView topLeftCell="A374" workbookViewId="0">
       <selection activeCell="E379" sqref="A1:E413"/>
     </sheetView>
   </sheetViews>
@@ -21449,4 +21666,677 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="9" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="9" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="9" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="9" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="9" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="9" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="9" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="9" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B15:C16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>